--- a/notebooks/reflection_messages/table_4.xlsx
+++ b/notebooks/reflection_messages/table_4.xlsx
@@ -1,37 +1,60 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
   <workbookPr/>
-  <workbookProtection/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertpraas/ThoughtSource/notebooks/reflection_messages/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C053FD-47BD-2543-A5C4-88117012E284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
+    <workbookView xWindow="6740" yWindow="2060" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <definedNames/>
-  <calcPr calcId="124519" fullCalcOnLoad="1"/>
+  <calcPr calcId="0"/>
 </workbook>
 </file>
 
+<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+  <si>
+    <t>Average_true</t>
+  </si>
+  <si>
+    <t>Average_false</t>
+  </si>
+  <si>
+    <t>Difference</t>
+  </si>
+  <si>
+    <t>P-value</t>
+  </si>
+</sst>
+</file>
+
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
-      <color theme="1"/>
-      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b val="1"/>
+      <b/>
+      <sz val="11"/>
+      <name val="Calibri"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill/>
+      <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -46,93 +69,44 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin"/>
-      <right style="thin"/>
-      <top style="thin"/>
-      <bottom style="thin"/>
+      <left style="thin">
+        <color auto="1"/>
+      </left>
+      <right style="thin">
+        <color auto="1"/>
+      </right>
+      <top style="thin">
+        <color auto="1"/>
+      </top>
+      <bottom style="thin">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
+  <cellXfs count="3">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
+  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <colors>
-    <indexedColors>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00000000"/>
-      <rgbColor rgb="00FFFFFF"/>
-      <rgbColor rgb="00FF0000"/>
-      <rgbColor rgb="0000FF00"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008000"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00808000"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="00C0C0C0"/>
-      <rgbColor rgb="00808080"/>
-      <rgbColor rgb="009999FF"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00FFFFCC"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00660066"/>
-      <rgbColor rgb="00FF8080"/>
-      <rgbColor rgb="000066CC"/>
-      <rgbColor rgb="00CCCCFF"/>
-      <rgbColor rgb="00000080"/>
-      <rgbColor rgb="00FF00FF"/>
-      <rgbColor rgb="00FFFF00"/>
-      <rgbColor rgb="0000FFFF"/>
-      <rgbColor rgb="00800080"/>
-      <rgbColor rgb="00800000"/>
-      <rgbColor rgb="00008080"/>
-      <rgbColor rgb="000000FF"/>
-      <rgbColor rgb="0000CCFF"/>
-      <rgbColor rgb="00CCFFFF"/>
-      <rgbColor rgb="00CCFFCC"/>
-      <rgbColor rgb="00FFFF99"/>
-      <rgbColor rgb="0099CCFF"/>
-      <rgbColor rgb="00FF99CC"/>
-      <rgbColor rgb="00CC99FF"/>
-      <rgbColor rgb="00FFCC99"/>
-      <rgbColor rgb="003366FF"/>
-      <rgbColor rgb="0033CCCC"/>
-      <rgbColor rgb="0099CC00"/>
-      <rgbColor rgb="00FFCC00"/>
-      <rgbColor rgb="00FF9900"/>
-      <rgbColor rgb="00FF6600"/>
-      <rgbColor rgb="00666699"/>
-      <rgbColor rgb="00969696"/>
-      <rgbColor rgb="00003366"/>
-      <rgbColor rgb="00339966"/>
-      <rgbColor rgb="00003300"/>
-      <rgbColor rgb="00333300"/>
-      <rgbColor rgb="00993300"/>
-      <rgbColor rgb="00993366"/>
-      <rgbColor rgb="00333399"/>
-      <rgbColor rgb="00333333"/>
-    </indexedColors>
-  </colors>
+  <extLst>
+    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
+      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
+    </ext>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
+      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
+    </ext>
+  </extLst>
 </styleSheet>
 </file>
 
@@ -420,210 +394,199 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D13" sqref="A1:D13"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1">
-      <c r="A1" s="1" t="inlineStr">
-        <is>
-          <t>Average_true</t>
-        </is>
-      </c>
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>Average_false</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>Difference</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>P-value</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" t="n">
-        <v>99.65822784810126</v>
-      </c>
-      <c r="B2" t="n">
-        <v>98.66666666666667</v>
-      </c>
-      <c r="C2" t="n">
-        <v>0.9915611814345908</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" t="n">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A2" s="2">
+        <v>99.658227848101262</v>
+      </c>
+      <c r="B2" s="2">
+        <v>98.666666666666671</v>
+      </c>
+      <c r="C2" s="2">
+        <v>0.99156118143459082</v>
+      </c>
+      <c r="D2" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A3" s="2">
         <v>98.35443037974683</v>
       </c>
-      <c r="B3" t="n">
+      <c r="B3" s="2">
         <v>95</v>
       </c>
-      <c r="C3" t="n">
-        <v>3.35443037974683</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" t="n">
-        <v>99.92405063291139</v>
-      </c>
-      <c r="B4" t="n">
-        <v>99.42857142857143</v>
-      </c>
-      <c r="C4" t="n">
-        <v>0.4954792043399578</v>
-      </c>
-      <c r="D4" t="n">
+      <c r="C3" s="2">
+        <v>3.3544303797468298</v>
+      </c>
+      <c r="D3" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A4" s="2">
+        <v>99.924050632911388</v>
+      </c>
+      <c r="B4" s="2">
+        <v>99.428571428571431</v>
+      </c>
+      <c r="C4" s="2">
+        <v>0.49547920433995779</v>
+      </c>
+      <c r="D4" s="2">
         <v>0.313</v>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" t="n">
-        <v>98.92405063291139</v>
-      </c>
-      <c r="B5" t="n">
-        <v>95.66666666666667</v>
-      </c>
-      <c r="C5" t="n">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A5" s="2">
+        <v>98.924050632911388</v>
+      </c>
+      <c r="B5" s="2">
+        <v>95.666666666666671</v>
+      </c>
+      <c r="C5" s="2">
         <v>3.257383966244717</v>
       </c>
-      <c r="D5" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" t="n">
-        <v>99.31645569620254</v>
-      </c>
-      <c r="B6" t="n">
-        <v>98.23809523809524</v>
-      </c>
-      <c r="C6" t="n">
-        <v>1.078360458107298</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.001</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" t="n">
-        <v>99.01265822784811</v>
-      </c>
-      <c r="B7" t="n">
-        <v>96.14285714285714</v>
-      </c>
-      <c r="C7" t="n">
-        <v>2.869801084990968</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" t="n">
-        <v>90.70886075949367</v>
-      </c>
-      <c r="B8" t="n">
-        <v>86.85714285714286</v>
-      </c>
-      <c r="C8" t="n">
+      <c r="D5" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A6" s="2">
+        <v>99.316455696202539</v>
+      </c>
+      <c r="B6" s="2">
+        <v>98.238095238095241</v>
+      </c>
+      <c r="C6" s="2">
+        <v>1.0783604581072981</v>
+      </c>
+      <c r="D6" s="2">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A7" s="2">
+        <v>99.012658227848107</v>
+      </c>
+      <c r="B7" s="2">
+        <v>96.142857142857139</v>
+      </c>
+      <c r="C7" s="2">
+        <v>2.8698010849909679</v>
+      </c>
+      <c r="D7" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A8" s="2">
+        <v>90.708860759493675</v>
+      </c>
+      <c r="B8" s="2">
+        <v>86.857142857142861</v>
+      </c>
+      <c r="C8" s="2">
         <v>3.851717902350813</v>
       </c>
-      <c r="D8" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" t="n">
-        <v>98.69620253164557</v>
-      </c>
-      <c r="B9" t="n">
-        <v>94.33333333333333</v>
-      </c>
-      <c r="C9" t="n">
-        <v>4.362869198312239</v>
-      </c>
-      <c r="D9" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" t="n">
-        <v>93.0506329113924</v>
-      </c>
-      <c r="B10" t="n">
-        <v>92.66666666666667</v>
-      </c>
-      <c r="C10" t="n">
-        <v>0.3839662447257268</v>
-      </c>
-      <c r="D10" t="n">
-        <v>0.9320000000000001</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" t="n">
-        <v>99.34177215189874</v>
-      </c>
-      <c r="B11" t="n">
-        <v>97.52380952380952</v>
-      </c>
-      <c r="C11" t="n">
-        <v>1.817962628089219</v>
-      </c>
-      <c r="D11" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" t="n">
-        <v>99.0886075949367</v>
-      </c>
-      <c r="B12" t="n">
-        <v>92.85714285714286</v>
-      </c>
-      <c r="C12" t="n">
-        <v>6.231464737793843</v>
-      </c>
-      <c r="D12" t="n">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="n">
+      <c r="D8" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A9" s="2">
+        <v>98.696202531645568</v>
+      </c>
+      <c r="B9" s="2">
+        <v>94.333333333333329</v>
+      </c>
+      <c r="C9" s="2">
+        <v>4.3628691983122394</v>
+      </c>
+      <c r="D9" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A10" s="2">
+        <v>93.050632911392398</v>
+      </c>
+      <c r="B10" s="2">
+        <v>92.666666666666671</v>
+      </c>
+      <c r="C10" s="2">
+        <v>0.38396624472572682</v>
+      </c>
+      <c r="D10" s="2">
+        <v>0.93200000000000005</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A11" s="2">
+        <v>99.341772151898738</v>
+      </c>
+      <c r="B11" s="2">
+        <v>97.523809523809518</v>
+      </c>
+      <c r="C11" s="2">
+        <v>1.8179626280892189</v>
+      </c>
+      <c r="D11" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A12" s="2">
+        <v>99.088607594936704</v>
+      </c>
+      <c r="B12" s="2">
+        <v>92.857142857142861</v>
+      </c>
+      <c r="C12" s="2">
+        <v>6.2314647377938428</v>
+      </c>
+      <c r="D12" s="2">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
+      <c r="A13" s="2">
         <v>97.82508630609918</v>
       </c>
-      <c r="B13" t="n">
+      <c r="B13" s="2">
         <v>95.21645021645017</v>
       </c>
-      <c r="C13" t="n">
-        <v>2.608636089649011</v>
-      </c>
-      <c r="D13" t="n">
+      <c r="C13" s="2">
+        <v>2.6086360896490111</v>
+      </c>
+      <c r="D13" s="2">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>
--- a/notebooks/reflection_messages/table_4.xlsx
+++ b/notebooks/reflection_messages/table_4.xlsx
@@ -1,60 +1,37 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11010"/>
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/robertpraas/ThoughtSource/notebooks/reflection_messages/"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8C053FD-47BD-2543-A5C4-88117012E284}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <workbookProtection/>
   <bookViews>
-    <workbookView xWindow="6740" yWindow="2060" windowWidth="28800" windowHeight="17500" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="0"/>
+  <definedNames/>
+  <calcPr calcId="124519" fullCalcOnLoad="1"/>
 </workbook>
 </file>
 
-<file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
-  <si>
-    <t>Average_true</t>
-  </si>
-  <si>
-    <t>Average_false</t>
-  </si>
-  <si>
-    <t>Difference</t>
-  </si>
-  <si>
-    <t>P-value</t>
-  </si>
-</sst>
-</file>
-
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="0"/>
+  <fonts count="2">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <color theme="1"/>
+      <sz val="11"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <name val="Calibri"/>
+      <b val="1"/>
     </font>
   </fonts>
   <fills count="2">
     <fill>
-      <patternFill patternType="none"/>
+      <patternFill/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
@@ -69,44 +46,93 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color auto="1"/>
-      </left>
-      <right style="thin">
-        <color auto="1"/>
-      </right>
-      <top style="thin">
-        <color auto="1"/>
-      </top>
-      <bottom style="thin">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
+      <left style="thin"/>
+      <right style="thin"/>
+      <top style="thin"/>
+      <bottom style="thin"/>
     </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="2" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+  <cellXfs count="2">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" pivotButton="0" quotePrefix="0" xfId="0"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" applyAlignment="1" pivotButton="0" quotePrefix="0" xfId="0">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Normal" xfId="0" builtinId="0" hidden="0"/>
   </cellStyles>
-  <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9" defaultPivotStyle="PivotStyleLight16"/>
-  <extLst>
-    <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
-      <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
-    </ext>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{9260A510-F301-46a8-8635-F512D64BE5F5}">
-      <x15:timelineStyles defaultTimelineStyle="TimeSlicerStyleLight1"/>
-    </ext>
-  </extLst>
+  <colors>
+    <indexedColors>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00000000"/>
+      <rgbColor rgb="00FFFFFF"/>
+      <rgbColor rgb="00FF0000"/>
+      <rgbColor rgb="0000FF00"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008000"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00808000"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="00C0C0C0"/>
+      <rgbColor rgb="00808080"/>
+      <rgbColor rgb="009999FF"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00FFFFCC"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00660066"/>
+      <rgbColor rgb="00FF8080"/>
+      <rgbColor rgb="000066CC"/>
+      <rgbColor rgb="00CCCCFF"/>
+      <rgbColor rgb="00000080"/>
+      <rgbColor rgb="00FF00FF"/>
+      <rgbColor rgb="00FFFF00"/>
+      <rgbColor rgb="0000FFFF"/>
+      <rgbColor rgb="00800080"/>
+      <rgbColor rgb="00800000"/>
+      <rgbColor rgb="00008080"/>
+      <rgbColor rgb="000000FF"/>
+      <rgbColor rgb="0000CCFF"/>
+      <rgbColor rgb="00CCFFFF"/>
+      <rgbColor rgb="00CCFFCC"/>
+      <rgbColor rgb="00FFFF99"/>
+      <rgbColor rgb="0099CCFF"/>
+      <rgbColor rgb="00FF99CC"/>
+      <rgbColor rgb="00CC99FF"/>
+      <rgbColor rgb="00FFCC99"/>
+      <rgbColor rgb="003366FF"/>
+      <rgbColor rgb="0033CCCC"/>
+      <rgbColor rgb="0099CC00"/>
+      <rgbColor rgb="00FFCC00"/>
+      <rgbColor rgb="00FF9900"/>
+      <rgbColor rgb="00FF6600"/>
+      <rgbColor rgb="00666699"/>
+      <rgbColor rgb="00969696"/>
+      <rgbColor rgb="00003366"/>
+      <rgbColor rgb="00339966"/>
+      <rgbColor rgb="00003300"/>
+      <rgbColor rgb="00333300"/>
+      <rgbColor rgb="00993300"/>
+      <rgbColor rgb="00993366"/>
+      <rgbColor rgb="00333399"/>
+      <rgbColor rgb="00333333"/>
+    </indexedColors>
+  </colors>
 </styleSheet>
 </file>
 
@@ -394,199 +420,210 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
   <dimension ref="A1:D13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D13" sqref="A1:D13"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A2" s="2">
-        <v>99.658227848101262</v>
-      </c>
-      <c r="B2" s="2">
-        <v>98.666666666666671</v>
-      </c>
-      <c r="C2" s="2">
-        <v>0.99156118143459082</v>
-      </c>
-      <c r="D2" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A3" s="2">
+    <row r="1">
+      <c r="A1" s="1" t="inlineStr">
+        <is>
+          <t>Average_true</t>
+        </is>
+      </c>
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>Average_false</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>Difference</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>P-value</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" t="n">
+        <v>99.65822784810126</v>
+      </c>
+      <c r="B2" t="n">
+        <v>98.66666666666667</v>
+      </c>
+      <c r="C2" t="n">
+        <v>0.9915611814345908</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" t="n">
         <v>98.35443037974683</v>
       </c>
-      <c r="B3" s="2">
+      <c r="B3" t="n">
         <v>95</v>
       </c>
-      <c r="C3" s="2">
-        <v>3.3544303797468298</v>
-      </c>
-      <c r="D3" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A4" s="2">
-        <v>99.924050632911388</v>
-      </c>
-      <c r="B4" s="2">
-        <v>99.428571428571431</v>
-      </c>
-      <c r="C4" s="2">
-        <v>0.49547920433995779</v>
-      </c>
-      <c r="D4" s="2">
+      <c r="C3" t="n">
+        <v>3.35443037974683</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" t="n">
+        <v>99.92405063291139</v>
+      </c>
+      <c r="B4" t="n">
+        <v>99.42857142857143</v>
+      </c>
+      <c r="C4" t="n">
+        <v>0.4954792043399578</v>
+      </c>
+      <c r="D4" t="n">
         <v>0.313</v>
       </c>
     </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A5" s="2">
-        <v>98.924050632911388</v>
-      </c>
-      <c r="B5" s="2">
-        <v>95.666666666666671</v>
-      </c>
-      <c r="C5" s="2">
+    <row r="5">
+      <c r="A5" t="n">
+        <v>98.92405063291139</v>
+      </c>
+      <c r="B5" t="n">
+        <v>95.66666666666667</v>
+      </c>
+      <c r="C5" t="n">
         <v>3.257383966244717</v>
       </c>
-      <c r="D5" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A6" s="2">
-        <v>99.316455696202539</v>
-      </c>
-      <c r="B6" s="2">
-        <v>98.238095238095241</v>
-      </c>
-      <c r="C6" s="2">
-        <v>1.0783604581072981</v>
-      </c>
-      <c r="D6" s="2">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A7" s="2">
-        <v>99.012658227848107</v>
-      </c>
-      <c r="B7" s="2">
-        <v>96.142857142857139</v>
-      </c>
-      <c r="C7" s="2">
-        <v>2.8698010849909679</v>
-      </c>
-      <c r="D7" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A8" s="2">
-        <v>90.708860759493675</v>
-      </c>
-      <c r="B8" s="2">
-        <v>86.857142857142861</v>
-      </c>
-      <c r="C8" s="2">
+      <c r="D5" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>99.31645569620254</v>
+      </c>
+      <c r="B6" t="n">
+        <v>98.23809523809524</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1.078360458107298</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.001</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" t="n">
+        <v>99.01265822784811</v>
+      </c>
+      <c r="B7" t="n">
+        <v>96.14285714285714</v>
+      </c>
+      <c r="C7" t="n">
+        <v>2.869801084990968</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" t="n">
+        <v>90.70886075949367</v>
+      </c>
+      <c r="B8" t="n">
+        <v>86.85714285714286</v>
+      </c>
+      <c r="C8" t="n">
         <v>3.851717902350813</v>
       </c>
-      <c r="D8" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A9" s="2">
-        <v>98.696202531645568</v>
-      </c>
-      <c r="B9" s="2">
-        <v>94.333333333333329</v>
-      </c>
-      <c r="C9" s="2">
-        <v>4.3628691983122394</v>
-      </c>
-      <c r="D9" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A10" s="2">
-        <v>93.050632911392398</v>
-      </c>
-      <c r="B10" s="2">
-        <v>92.666666666666671</v>
-      </c>
-      <c r="C10" s="2">
-        <v>0.38396624472572682</v>
-      </c>
-      <c r="D10" s="2">
-        <v>0.93200000000000005</v>
-      </c>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A11" s="2">
-        <v>99.341772151898738</v>
-      </c>
-      <c r="B11" s="2">
-        <v>97.523809523809518</v>
-      </c>
-      <c r="C11" s="2">
-        <v>1.8179626280892189</v>
-      </c>
-      <c r="D11" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A12" s="2">
-        <v>99.088607594936704</v>
-      </c>
-      <c r="B12" s="2">
-        <v>92.857142857142861</v>
-      </c>
-      <c r="C12" s="2">
-        <v>6.2314647377938428</v>
-      </c>
-      <c r="D12" s="2">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.2">
-      <c r="A13" s="2">
+      <c r="D8" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="n">
+        <v>98.69620253164557</v>
+      </c>
+      <c r="B9" t="n">
+        <v>94.33333333333333</v>
+      </c>
+      <c r="C9" t="n">
+        <v>4.362869198312239</v>
+      </c>
+      <c r="D9" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="n">
+        <v>93.0506329113924</v>
+      </c>
+      <c r="B10" t="n">
+        <v>92.66666666666667</v>
+      </c>
+      <c r="C10" t="n">
+        <v>0.3839662447257268</v>
+      </c>
+      <c r="D10" t="n">
+        <v>0.9320000000000001</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="n">
+        <v>99.34177215189874</v>
+      </c>
+      <c r="B11" t="n">
+        <v>97.52380952380952</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.817962628089219</v>
+      </c>
+      <c r="D11" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="n">
+        <v>99.0886075949367</v>
+      </c>
+      <c r="B12" t="n">
+        <v>92.85714285714286</v>
+      </c>
+      <c r="C12" t="n">
+        <v>6.231464737793843</v>
+      </c>
+      <c r="D12" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" t="n">
         <v>97.82508630609918</v>
       </c>
-      <c r="B13" s="2">
+      <c r="B13" t="n">
         <v>95.21645021645017</v>
       </c>
-      <c r="C13" s="2">
-        <v>2.6086360896490111</v>
-      </c>
-      <c r="D13" s="2">
+      <c r="C13" t="n">
+        <v>2.608636089649011</v>
+      </c>
+      <c r="D13" t="n">
         <v>0</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
-  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="0" verticalDpi="0"/>
 </worksheet>
 </file>